--- a/doc/excel_output/Indicators.xlsx
+++ b/doc/excel_output/Indicators.xlsx
@@ -436,6 +436,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="33" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -475,7 +481,6 @@
           <t>a97a0155-0234-4b87-b4ce-a45da52f2a40</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -493,7 +498,6 @@
           <t>cba73800-7874-11e3-981f-0800200c9a66</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -511,7 +515,6 @@
           <t>a29449fd-aa2f-4de8-b5d7-4b06b43c6fde</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -529,7 +532,6 @@
           <t>b00f9ec0-7874-11e3-981f-0800200c9a66</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -547,7 +549,6 @@
           <t>c0016b33-8cf7-415c-ac6e-deba0d21440d</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -565,7 +566,6 @@
           <t>4f2eb655-6e44-4874-a95a-e28f5442cd4d</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -583,7 +583,6 @@
           <t>9c1e8451-2321-4498-b459-b6568b6b6547</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -603,6 +602,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="88" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="38" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -676,6 +682,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="77" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="38" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1267,6 +1279,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="77" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="38" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2105,9 +2123,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
           <t>new</t>
@@ -2115,9 +2130,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
           <t>updated</t>
@@ -2142,6 +2154,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
+    <col width="38" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="45" customWidth="1" min="10" max="10"/>
+    <col width="42" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2226,12 +2251,6 @@
           <t>kg</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2259,12 +2278,6 @@
           <t>kg</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2307,7 +2320,6 @@
           <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>7e18d0ad-e78e-47a0-8e96-1c0a581902e2</t>
@@ -2360,8 +2372,6 @@
           <t>93a60a57-a3c8-12da-a746-0800200c9a66</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>cd950537-0a98-4044-9ba7-9f9a68d0a504</t>
@@ -2409,8 +2419,6 @@
           <t>93a60a57-a3c8-18da-a746-0800200c9a66</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>c20a03d7-bd90-4569-bc94-66cfd364dfc8</t>
@@ -2458,9 +2466,6 @@
           <t>838aaa22-0117-11db-92e3-0800200c9a66</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2503,8 +2508,6 @@
           <t>5beb6eed-33a9-47b8-9ede-1dfe8f679159</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>934110e3-baf4-49e9-992c-3d8109a6aafb</t>
@@ -2552,9 +2555,6 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2597,9 +2597,6 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2617,14 +2614,6 @@
           <t>9b784a67-fbb1-4ad2-8774-30c39643b844</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2642,7 +2631,6 @@
           <t>b3f0f892-c5a3-4c66-a432-c09e3d1e9bd6</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>kg*a</t>
@@ -2663,9 +2651,6 @@
           <t>59f191d6-5dd3-4553-af88-1a32accfe308</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2683,7 +2668,6 @@
           <t>93a60a56-a3c8-21da-a746-0800200c9a66</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>m2*a</t>
@@ -2704,9 +2688,6 @@
           <t>93a60a57-a3c8-20da-a746-0800200c9a66</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2724,7 +2705,6 @@
           <t>441238a3-ba09-46ec-b35b-c30cfba746d1</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>m3*a</t>
@@ -2745,9 +2725,6 @@
           <t>93a60a57-a3c8-23da-a746-0800200c9a66</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2765,7 +2742,6 @@
           <t>c0447923-0e60-4b3c-97c2-a86dddd9eea5</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>a</t>
@@ -2781,10 +2757,6 @@
           <t>unit group data set</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2802,18 +2774,11 @@
           <t>838aaa20-0117-11db-92e3-0800200c9a66</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>t*km</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2831,7 +2796,6 @@
           <t>93a60a56-a3c8-17da-a746-0800200c9a66</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>kBq</t>
@@ -2852,9 +2816,6 @@
           <t>93a60a57-a3c8-16da-a746-0800200c9a66</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
